--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>Bake Potato Pizza</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit. Quos nihil cupiditate ut vero alias quaerat inventore molestias vel suscipit explicabo.</t>
+  </si>
+  <si>
+    <t>images/menu/tuscan-grilled.jpg</t>
   </si>
 </sst>
 </file>
@@ -381,38 +384,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="173.85546875" customWidth="1"/>
+    <col min="1" max="1" width="38.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="173.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="C1" s="2">
         <v>20.5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>10.5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,18 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
-  <si>
-    <t>Bake Potato Pizza</t>
-  </si>
-  <si>
-    <t>Salted Fried Chicken</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit. Quos nihil cupiditate ut vero alias quaerat inventore molestias vel suscipit explicabo.</t>
   </si>
   <si>
     <t>images/menu/tuscan-grilled.jpg</t>
+  </si>
+  <si>
+    <t>images/menu/caesar.jpg</t>
+  </si>
+  <si>
+    <t>images/menu/cake.jpg</t>
+  </si>
+  <si>
+    <t>images/menu/greek-salad.jpg</t>
+  </si>
+  <si>
+    <t>images/menu/lobster-bisque.jpg</t>
+  </si>
+  <si>
+    <t>Ceaser Salad</t>
+  </si>
+  <si>
+    <t>Cake</t>
+  </si>
+  <si>
+    <t>Greek Salad</t>
+  </si>
+  <si>
+    <t>Lobster Bisque</t>
+  </si>
+  <si>
+    <t>images/menu/mozzarella.jpg</t>
+  </si>
+  <si>
+    <t>Mozerella</t>
+  </si>
+  <si>
+    <t>Tuscan Grilled</t>
+  </si>
+  <si>
+    <t>images/menu/spinach-salad.jpg</t>
+  </si>
+  <si>
+    <t>Spinach Salad</t>
   </si>
 </sst>
 </file>
@@ -384,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,31 +433,104 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2">
         <v>20.5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>10.5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>40.549999999999997</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>30.5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit. Quos nihil cupiditate ut vero alias quaerat inventore molestias vel suscipit explicabo.</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>Spinach Salad</t>
+  </si>
+  <si>
+    <t>images/menu/lobster-roll.jpg</t>
+  </si>
+  <si>
+    <t>Lobster Roll</t>
   </si>
 </sst>
 </file>
@@ -419,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -530,7 +536,18 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="2">
+        <v>90</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -74,7 +74,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +91,25 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="9" tint="-0.499984740745262"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -115,10 +134,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,10 +456,11 @@
     <col min="1" max="1" width="38.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="173.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="173.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -447,11 +470,12 @@
       <c r="C1" s="2">
         <v>20.5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -461,11 +485,14 @@
       <c r="C2" s="2">
         <v>10.5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -475,11 +502,14 @@
       <c r="C3" s="2">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D3" s="5">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -489,11 +519,14 @@
       <c r="C4" s="2">
         <v>17.5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -503,11 +536,14 @@
       <c r="C5" s="2">
         <v>22.5</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -517,11 +553,14 @@
       <c r="C6" s="2">
         <v>40.549999999999997</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -531,11 +570,14 @@
       <c r="C7" s="2">
         <v>30.5</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -545,7 +587,10 @@
       <c r="C8" s="2">
         <v>90</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -134,13 +134,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,7 +449,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,8 +483,8 @@
       <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2">
-        <v>10.5</v>
+      <c r="C2" s="6">
+        <v>10</v>
       </c>
       <c r="D2" s="5">
         <v>50</v>
@@ -499,8 +500,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
-        <v>15</v>
+      <c r="C3" s="6">
+        <v>40</v>
       </c>
       <c r="D3" s="5">
         <v>20</v>
@@ -516,8 +517,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2">
-        <v>17.5</v>
+      <c r="C4" s="6">
+        <v>50</v>
       </c>
       <c r="D4" s="3">
         <v>30</v>
@@ -533,8 +534,8 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
-        <v>22.5</v>
+      <c r="C5" s="6">
+        <v>60</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
@@ -550,8 +551,8 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
-        <v>40.549999999999997</v>
+      <c r="C6" s="6">
+        <v>70</v>
       </c>
       <c r="D6" s="3">
         <v>0</v>
@@ -567,8 +568,8 @@
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2">
-        <v>30.5</v>
+      <c r="C7" s="6">
+        <v>80</v>
       </c>
       <c r="D7" s="5">
         <v>0</v>
@@ -584,7 +585,7 @@
       <c r="B8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>90</v>
       </c>
       <c r="D8" s="3">

--- a/data.xlsx
+++ b/data.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
+    <sheet name="gallery" sheetId="2" r:id="rId2"/>
+    <sheet name="events" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Lorem ipsum dolor sit amet, consectetur adipisicing elit. Quos nihil cupiditate ut vero alias quaerat inventore molestias vel suscipit explicabo.</t>
   </si>
@@ -65,6 +67,18 @@
   </si>
   <si>
     <t>Lobster Roll</t>
+  </si>
+  <si>
+    <t>images/gallery/gallery-1.jpg</t>
+  </si>
+  <si>
+    <t>images/gallery/gallery-3.jpg</t>
+  </si>
+  <si>
+    <t>Photoshoot On The Street</t>
+  </si>
+  <si>
+    <t>Far far away, behind the word mountains, far from the countries Vokalia and Consonantia, there live the blind texts.</t>
   </si>
 </sst>
 </file>
@@ -74,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +124,37 @@
     <font>
       <sz val="14"/>
       <color theme="9" tint="-0.499984740745262"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Georgia"/>
       <family val="1"/>
     </font>
@@ -131,10 +176,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -142,8 +188,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -448,7 +505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -599,4 +656,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="98.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="http://127.0.0.1:5500/tasty/index.html"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://127.0.0.1:5500/tasty/index.html"/>
+    <hyperlink ref="B3" r:id="rId3" display="http://127.0.0.1:5500/tasty/index.html"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>